--- a/comparativos/sumario.xlsx
+++ b/comparativos/sumario.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfb9b990915f6edd/mestrado/pesquisa/experimentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfb9b990915f6edd/mestrado/pesquisa/deeplearningwithirace/comparativos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{28A4A001-6538-4F63-9CB0-06F58839E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5918BEE-87D9-493E-959E-151A13E4EB2D}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{28A4A001-6538-4F63-9CB0-06F58839E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D751A20-1A87-4E26-9A96-0C2F37EA8B4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{3F9142FB-B8F3-4304-9069-F35AF9B85BF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{3F9142FB-B8F3-4304-9069-F35AF9B85BF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="EXP1" sheetId="3" r:id="rId2"/>
     <sheet name="EXP2" sheetId="4" r:id="rId3"/>
-    <sheet name="EXP3" sheetId="5" r:id="rId4"/>
-    <sheet name="EXP4" sheetId="6" r:id="rId5"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId6"/>
+    <sheet name="EXP3" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="EXP4" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Resultado Final" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'EXP1'!$A$1:$AG$11</definedName>
@@ -320,7 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +345,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -518,16 +525,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2738,10 +2746,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3194,8 +3198,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A6980FBE-65F4-4BA2-B493-6A7521EEA45C}" name="Tabela8" displayName="Tabela8" ref="A1:AH39" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="A1:AH39" xr:uid="{A6980FBE-65F4-4BA2-B493-6A7521EEA45C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH39">
-    <sortCondition descending="1" ref="AF1:AF39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH21">
+    <sortCondition ref="A2:A39"/>
+    <sortCondition ref="B2:B39"/>
   </sortState>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{B70F5186-40BA-4325-914F-03CFE9CE28CA}" name="EXP" dataDxfId="57"/>
@@ -3560,23 +3565,23 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3614,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3643,7 +3648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3677,7 +3682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3706,7 +3711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3740,7 +3745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3838,7 +3843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3891,58 +3896,58 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="57" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="57" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="58" max="64" width="17" bestFit="1" customWidth="1"/>
     <col min="65" max="71" width="18" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="18" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4108,7 +4113,7 @@
         <v>75.733458367983502</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4173,7 +4178,7 @@
         <v>620.47724804878203</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4235,7 +4240,7 @@
         <v>131.498756996791</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>127.59561530748999</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>840.68093914985695</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4478,7 +4483,7 @@
         <v>104.798955202103</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -4567,7 +4572,7 @@
         <v>469.60175855159798</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4644,7 +4649,7 @@
         <v>570.63563624223104</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>197.280905818939</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4860,51 +4865,51 @@
   </sheetPr>
   <dimension ref="A1:AT11"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="58" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="58" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="59" max="65" width="17" bestFit="1" customWidth="1"/>
     <col min="66" max="72" width="18" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="18" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -5044,7 +5049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5106,7 +5111,7 @@
         <v>600.196632226308</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -5192,7 +5197,7 @@
         <v>142.12902557055199</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>96.944091208775802</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -5328,7 +5333,7 @@
         <v>283.40121688047998</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>91.535086003939298</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -5491,7 +5496,7 @@
         <v>972.83061408996605</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -5592,7 +5597,7 @@
         <v>696.20479989846501</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -5693,7 +5698,7 @@
         <v>787.85460887750003</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>773.76863133907295</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -5924,48 +5929,48 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.42578125" customWidth="1"/>
-    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="59" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.44140625" customWidth="1"/>
+    <col min="48" max="48" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="59" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="60" max="66" width="17" bestFit="1" customWidth="1"/>
     <col min="67" max="73" width="18" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="18" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -6197,7 +6202,7 @@
         <v>171.11059034665399</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -6298,7 +6303,7 @@
         <v>92.512459993362398</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -6378,7 +6383,7 @@
         <v>283.728479703267</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -6455,7 +6460,7 @@
         <v>98.093706178665201</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -6529,7 +6534,7 @@
         <v>314.29876326719898</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -6603,7 +6608,7 @@
         <v>341.11606853802999</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -6677,7 +6682,7 @@
         <v>332.45338120460502</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -6780,48 +6785,48 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.42578125" customWidth="1"/>
-    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="59" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.44140625" customWidth="1"/>
+    <col min="48" max="48" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="59" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="60" max="66" width="17" bestFit="1" customWidth="1"/>
     <col min="67" max="73" width="18" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="18" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6961,7 +6966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>447.51114521821302</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -7151,7 +7156,7 @@
         <v>166.76135795911199</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -7237,7 +7242,7 @@
         <v>372.10484106540702</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -7314,7 +7319,7 @@
         <v>182.86313065687801</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -7388,7 +7393,7 @@
         <v>82.544931181271906</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -7489,7 +7494,7 @@
         <v>895.38368752002702</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -7590,7 +7595,7 @@
         <v>865.49373059272796</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>806.08633345762905</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -7792,7 +7797,7 @@
         <v>811.98574967384297</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -7915,23 +7920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB6C1E1-E5AE-4FCD-94BC-E2E3FB41437C}">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection sqref="A1:AH6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.42578125" customWidth="1"/>
+    <col min="3" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.44140625" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.7109375" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" customWidth="1"/>
-    <col min="33" max="33" width="22.85546875" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" customWidth="1"/>
+    <col min="32" max="32" width="10.5546875" customWidth="1"/>
+    <col min="33" max="33" width="22.88671875" customWidth="1"/>
     <col min="34" max="34" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -8035,1456 +8040,1290 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10">
+        <v>128</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10">
+        <v>9</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="W2" s="10">
+        <v>2</v>
+      </c>
+      <c r="X2" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>101</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>0.75296533099999996</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>0.79066539804140701</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>3.4590022569824401E-2</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>0.747373338540395</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>8.56657861304678E-3</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>75.733458367983502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
+        <v>32</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10">
+        <v>7</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="W3" s="10">
+        <v>2</v>
+      </c>
+      <c r="X3" s="10">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>187</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>0.76469906600000004</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>0.79321498274803204</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>1.5934312072191599E-2</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0.72906000018119799</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>5.3802065687270102E-3</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>620.47724804878203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
+        <v>32</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10">
+        <v>9</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="W4" s="10">
+        <v>1</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>207</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>0.789840353</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>0.81938179135322597</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>3.3202825036618797E-2</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0.72942666808764101</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>9.3033509249730306E-3</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>131.498756996791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
+        <v>128</v>
+      </c>
+      <c r="O5" s="10">
+        <v>64</v>
+      </c>
+      <c r="P5" s="10">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10">
+        <v>9</v>
+      </c>
+      <c r="S5" s="10">
+        <v>7</v>
+      </c>
+      <c r="T5" s="10">
+        <v>11</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="W5" s="10">
+        <v>2</v>
+      </c>
+      <c r="X5" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>512</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>150</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>0.79672435500000005</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>0.83578843077023801</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>3.7921644864806703E-2</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0.72043333450953195</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>1.2151271282704001E-2</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>127.59561530748999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10">
+        <v>128</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10">
+        <v>7</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="W6" s="10">
+        <v>2</v>
+      </c>
+      <c r="X6" s="10">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>227</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0.66541944399999997</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>0.69428819417953502</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>1.26512785942449E-2</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0.76609665950139405</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>4.3250252426149096E-3</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>840.68093914985695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
+        <v>64</v>
+      </c>
+      <c r="O7" s="7">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7">
+        <v>7</v>
+      </c>
+      <c r="S7" s="7">
+        <v>7</v>
+      </c>
+      <c r="T7" s="7">
+        <v>9</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W7" s="7">
+        <v>2</v>
+      </c>
+      <c r="X7" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>128</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0.69145995400000004</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.75776034196217901</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>3.4689807638593501E-2</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0.76577000220616698</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>1.1551268040909401E-2</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>104.798955202103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
+        <v>32</v>
+      </c>
+      <c r="O8" s="7">
+        <v>32</v>
+      </c>
+      <c r="P8" s="7">
+        <v>256</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>1</v>
-      </c>
-      <c r="K2" s="16">
-        <v>1</v>
-      </c>
-      <c r="L2" s="16">
-        <v>0</v>
-      </c>
-      <c r="M2" s="16">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>128</v>
-      </c>
-      <c r="O2" s="16">
-        <v>128</v>
-      </c>
-      <c r="P2" s="16">
-        <v>128</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>32</v>
-      </c>
-      <c r="R2" s="16">
+      <c r="S8" s="7">
+        <v>7</v>
+      </c>
+      <c r="T8" s="7">
+        <v>9</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="W8" s="7">
+        <v>2</v>
+      </c>
+      <c r="X8" s="7">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>16</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>231</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0.70074236400000001</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.75084720651308701</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>1.65105734189771E-2</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.75730333725611398</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>5.4262084780144996E-3</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>469.60175855159798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="S2" s="16">
-        <v>7</v>
-      </c>
-      <c r="T2" s="16">
-        <v>9</v>
-      </c>
-      <c r="U2" s="16">
-        <v>9</v>
-      </c>
-      <c r="V2" s="16">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="16">
-        <v>2</v>
-      </c>
-      <c r="X2" s="16">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="AA2" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="16">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="16">
-        <v>0.85559999900000006</v>
-      </c>
-      <c r="AD2" s="16">
-        <v>0.64776663382848099</v>
-      </c>
-      <c r="AE2" s="16">
-        <v>4.1498766218760301E-2</v>
-      </c>
-      <c r="AF2" s="16">
-        <v>0.83244999647140505</v>
-      </c>
-      <c r="AG2" s="16">
-        <v>8.7733010656359297E-3</v>
-      </c>
-      <c r="AH2" s="17">
-        <v>895.38368752002702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="16">
-        <v>5</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>1</v>
-      </c>
-      <c r="N3" s="16">
-        <v>128</v>
-      </c>
-      <c r="O3" s="16">
-        <v>128</v>
-      </c>
-      <c r="P3" s="16">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>32</v>
-      </c>
-      <c r="R3" s="16">
-        <v>3</v>
-      </c>
-      <c r="S3" s="16">
-        <v>7</v>
-      </c>
-      <c r="T3" s="16">
-        <v>9</v>
-      </c>
-      <c r="U3" s="16">
-        <v>9</v>
-      </c>
-      <c r="V3" s="16">
-        <v>0.41</v>
-      </c>
-      <c r="W3" s="16">
-        <v>2</v>
-      </c>
-      <c r="X3" s="16">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>159</v>
-      </c>
-      <c r="AC3" s="16">
-        <v>0.84500002900000004</v>
-      </c>
-      <c r="AD3" s="16">
-        <v>0.64612280925114995</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>3.6992148717990898E-2</v>
-      </c>
-      <c r="AF3" s="16">
-        <v>0.82726333538691199</v>
-      </c>
-      <c r="AG3" s="16">
-        <v>7.1410699758598702E-3</v>
-      </c>
-      <c r="AH3" s="17">
-        <v>806.08633345762905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="16">
-        <v>5</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>1</v>
-      </c>
-      <c r="N4" s="16">
-        <v>128</v>
-      </c>
-      <c r="O4" s="16">
-        <v>128</v>
-      </c>
-      <c r="P4" s="16">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>32</v>
-      </c>
-      <c r="R4" s="16">
-        <v>3</v>
-      </c>
-      <c r="S4" s="16">
-        <v>7</v>
-      </c>
-      <c r="T4" s="16">
-        <v>9</v>
-      </c>
-      <c r="U4" s="16">
-        <v>9</v>
-      </c>
-      <c r="V4" s="16">
-        <v>0.41</v>
-      </c>
-      <c r="W4" s="16">
-        <v>2</v>
-      </c>
-      <c r="X4" s="16">
-        <v>53</v>
-      </c>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>155</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>0.84310001099999998</v>
-      </c>
-      <c r="AD4" s="16">
-        <v>0.64149477283159895</v>
-      </c>
-      <c r="AE4" s="16">
-        <v>3.7548352765818603E-2</v>
-      </c>
-      <c r="AF4" s="16">
-        <v>0.82664333383242306</v>
-      </c>
-      <c r="AG4" s="16">
-        <v>4.8826730567571299E-3</v>
-      </c>
-      <c r="AH4" s="17">
-        <v>799.06912129720001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="16">
-        <v>5</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="J5" s="16">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16">
-        <v>128</v>
-      </c>
-      <c r="O5" s="16">
-        <v>128</v>
-      </c>
-      <c r="P5" s="16">
-        <v>128</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>32</v>
-      </c>
-      <c r="R5" s="16">
-        <v>3</v>
-      </c>
-      <c r="S5" s="16">
-        <v>7</v>
-      </c>
-      <c r="T5" s="16">
-        <v>9</v>
-      </c>
-      <c r="U5" s="16">
-        <v>9</v>
-      </c>
-      <c r="V5" s="16">
-        <v>0.41</v>
-      </c>
-      <c r="W5" s="16">
-        <v>2</v>
-      </c>
-      <c r="X5" s="16">
-        <v>59</v>
-      </c>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>177</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>0.84420001499999997</v>
-      </c>
-      <c r="AD5" s="16">
-        <v>0.66468369762102797</v>
-      </c>
-      <c r="AE5" s="16">
-        <v>4.0032242153568799E-2</v>
-      </c>
-      <c r="AF5" s="16">
-        <v>0.826539997259776</v>
-      </c>
-      <c r="AG5" s="16">
-        <v>7.3712182504944903E-3</v>
-      </c>
-      <c r="AH5" s="17">
-        <v>811.98574967384297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="16">
-        <v>5</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>1</v>
-      </c>
-      <c r="N6" s="16">
-        <v>128</v>
-      </c>
-      <c r="O6" s="16">
-        <v>128</v>
-      </c>
-      <c r="P6" s="16">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>32</v>
-      </c>
-      <c r="R6" s="16">
-        <v>3</v>
-      </c>
-      <c r="S6" s="16">
-        <v>7</v>
-      </c>
-      <c r="T6" s="16">
-        <v>9</v>
-      </c>
-      <c r="U6" s="16">
-        <v>9</v>
-      </c>
-      <c r="V6" s="16">
-        <v>0.42</v>
-      </c>
-      <c r="W6" s="16">
-        <v>2</v>
-      </c>
-      <c r="X6" s="16">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>188</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>0.84649997899999996</v>
-      </c>
-      <c r="AD6" s="16">
-        <v>0.67490427891413396</v>
-      </c>
-      <c r="AE6" s="16">
-        <v>4.8813876798344397E-2</v>
-      </c>
-      <c r="AF6" s="16">
-        <v>0.82470999757448804</v>
-      </c>
-      <c r="AG6" s="16">
-        <v>7.7223546310897498E-3</v>
-      </c>
-      <c r="AH6" s="17">
-        <v>865.49373059272796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10">
-        <v>128</v>
-      </c>
-      <c r="O7" s="10">
-        <v>64</v>
-      </c>
-      <c r="P7" s="10">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10">
-        <v>5</v>
-      </c>
-      <c r="S7" s="10">
-        <v>11</v>
-      </c>
-      <c r="T7" s="10">
-        <v>7</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="W7" s="10">
-        <v>3</v>
-      </c>
-      <c r="X7" s="10">
-        <v>102</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>86</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>166</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>0.62185473700000005</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>0.69272742470105497</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>2.5393130421131099E-2</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>0.80245332717895501</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>7.6095554933616498E-3</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>171.11059034665399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="20">
-        <v>4</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>1</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20">
-        <v>1</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20">
-        <v>256</v>
-      </c>
-      <c r="O8" s="20">
-        <v>32</v>
-      </c>
-      <c r="P8" s="20">
-        <v>256</v>
-      </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20">
-        <v>7</v>
-      </c>
-      <c r="S8" s="20">
-        <v>5</v>
-      </c>
-      <c r="T8" s="20">
-        <v>9</v>
-      </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20">
-        <v>0.38</v>
-      </c>
-      <c r="W8" s="20">
-        <v>2</v>
-      </c>
-      <c r="X8" s="20">
-        <v>86</v>
-      </c>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20">
-        <v>1E-4</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>16</v>
-      </c>
-      <c r="AB8" s="20">
-        <v>33</v>
-      </c>
-      <c r="AC8" s="20">
-        <v>0.81414499600000001</v>
-      </c>
-      <c r="AD8" s="20">
-        <v>0.686011338233948</v>
-      </c>
-      <c r="AE8" s="20">
-        <v>2.32042330451037E-2</v>
-      </c>
-      <c r="AF8" s="20">
-        <v>0.80031666755676301</v>
-      </c>
-      <c r="AG8" s="20">
-        <v>5.7912531330664299E-3</v>
-      </c>
-      <c r="AH8" s="21">
-        <v>447.51114521821302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="7">
-        <v>5</v>
-      </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="7">
         <v>256</v>
       </c>
       <c r="O9" s="7">
-        <v>256</v>
-      </c>
-      <c r="P9" s="7">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="7">
         <v>128</v>
       </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S9" s="7">
-        <v>9</v>
-      </c>
-      <c r="T9" s="7">
-        <v>5</v>
-      </c>
-      <c r="U9" s="7">
         <v>7</v>
       </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
       <c r="V9" s="7">
-        <v>0.12865527199999999</v>
+        <v>0.32</v>
       </c>
       <c r="W9" s="7">
         <v>2</v>
       </c>
       <c r="X9" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7">
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AA9" s="7">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="AB9" s="7">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="AC9" s="7">
-        <v>0.64217436299999997</v>
+        <v>0.70663344900000002</v>
       </c>
       <c r="AD9" s="7">
-        <v>0.73458821972211197</v>
+        <v>0.74136359095573401</v>
       </c>
       <c r="AE9" s="7">
-        <v>7.7398218723222403E-2</v>
+        <v>2.5001852819337301E-2</v>
       </c>
       <c r="AF9" s="7">
-        <v>0.79403333465258297</v>
+        <v>0.74506333271662395</v>
       </c>
       <c r="AG9" s="7">
-        <v>2.1042747775147801E-2</v>
+        <v>9.0180117704540801E-3</v>
       </c>
       <c r="AH9" s="8">
-        <v>696.20479989846501</v>
+        <v>570.63563624223104</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="7">
         <v>0</v>
       </c>
       <c r="J10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M10" s="7"/>
       <c r="N10" s="7">
         <v>256</v>
       </c>
       <c r="O10" s="7">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7">
         <v>64</v>
       </c>
-      <c r="Q10" s="7">
-        <v>128</v>
-      </c>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S10" s="7">
+        <v>7</v>
+      </c>
+      <c r="T10" s="7">
         <v>9</v>
       </c>
-      <c r="T10" s="7">
-        <v>7</v>
-      </c>
-      <c r="U10" s="7">
-        <v>7</v>
-      </c>
+      <c r="U10" s="7"/>
       <c r="V10" s="7">
-        <v>0.104736808</v>
+        <v>0.22</v>
       </c>
       <c r="W10" s="7">
         <v>2</v>
       </c>
       <c r="X10" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>1024</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>138</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0.71646696300000001</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.79223951697349504</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>3.7314496738958702E-2</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0.72987999518712399</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>1.5337639516124201E-2</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>197.280905818939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>128</v>
+      </c>
+      <c r="O11" s="7">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>64</v>
+      </c>
+      <c r="R11" s="7">
+        <v>7</v>
+      </c>
+      <c r="S11" s="7">
+        <v>7</v>
+      </c>
+      <c r="T11" s="7">
+        <v>9</v>
+      </c>
+      <c r="U11" s="7">
+        <v>5</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="W11" s="7">
+        <v>2</v>
+      </c>
+      <c r="X11" s="7">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>256</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0.717452168</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0.80070410768191003</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>3.12605577087001E-2</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0.74142000873883596</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>9.8436178379581792E-3</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>111.120534650485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10">
+        <v>256</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10">
+        <v>5</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10">
+        <v>0.39372000000000001</v>
+      </c>
+      <c r="W12" s="10">
+        <v>1</v>
+      </c>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>64</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>162</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>0.70283633099999998</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>0.74329704840977995</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>1.07585898894903E-2</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>0.74887666106224104</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>5.0454277732012399E-3</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>600.196632226308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10">
+        <v>64</v>
+      </c>
+      <c r="O13" s="10">
+        <v>32</v>
+      </c>
+      <c r="P13" s="10">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10">
+        <v>5</v>
+      </c>
+      <c r="S13" s="10">
+        <v>9</v>
+      </c>
+      <c r="T13" s="10">
+        <v>5</v>
+      </c>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10">
+        <v>0.32162000000000002</v>
+      </c>
+      <c r="W13" s="10">
+        <v>1</v>
+      </c>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA13" s="10">
         <v>16</v>
       </c>
-      <c r="AB10" s="7">
-        <v>29</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0.64962905599999998</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>0.74313720862070698</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>4.8535284999142697E-2</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>0.78961333036422698</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>1.1027104497668999E-2</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>773.76863133907295</v>
+      <c r="AB13" s="10">
+        <v>117</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>0.77225716899999997</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>0.83790799776713099</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>7.9295434587153393E-2</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>0.75582332809766095</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>1.3699378183625001E-2</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>142.12902557055199</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="16">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16">
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10">
+        <v>64</v>
+      </c>
+      <c r="O14" s="10">
+        <v>32</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10">
+        <v>5</v>
+      </c>
+      <c r="S14" s="10">
+        <v>9</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10">
+        <v>0.40906999999999999</v>
+      </c>
+      <c r="W14" s="10">
+        <v>1</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>512</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>84</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>0.79489138100000001</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>0.83565710385640501</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>8.1619730052011494E-2</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>0.73153999646504697</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>2.35528701994537E-2</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>96.944091208775802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10">
+        <v>128</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10">
+        <v>3</v>
+      </c>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10">
+        <v>0.41471000000000002</v>
+      </c>
+      <c r="W15" s="10">
+        <v>1</v>
+      </c>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>128</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>155</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>0.82618232599999997</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>0.863362042109172</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>1.5059247108783501E-2</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>0.70682333509127304</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>6.6040063696071599E-3</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>283.40121688047998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10">
         <v>256</v>
       </c>
-      <c r="O11" s="16">
-        <v>64</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16">
-        <v>3</v>
-      </c>
-      <c r="S11" s="16">
-        <v>3</v>
-      </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="W11" s="16">
-        <v>1</v>
-      </c>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16">
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10">
+        <v>5</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10">
+        <v>0.26488</v>
+      </c>
+      <c r="W16" s="10">
+        <v>1</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10">
         <v>1E-4</v>
       </c>
-      <c r="AA11" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>213</v>
-      </c>
-      <c r="AC11" s="16">
-        <v>0.58628886899999999</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>0.63863595326741496</v>
-      </c>
-      <c r="AE11" s="16">
-        <v>1.6894403470495398E-2</v>
-      </c>
-      <c r="AF11" s="16">
-        <v>0.788689996798833</v>
-      </c>
-      <c r="AG11" s="16">
-        <v>6.5626081643006201E-3</v>
-      </c>
-      <c r="AH11" s="17">
-        <v>341.11606853802999</v>
+      <c r="AA16" s="10">
+        <v>512</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>109</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>0.82423857099999998</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>0.86392089724540699</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>2.09393928041989E-2</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0.716286665201187</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>8.1134123619265308E-3</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>91.535086003939298</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="16">
-        <v>3</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16">
-        <v>256</v>
-      </c>
-      <c r="O12" s="16">
-        <v>64</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16">
-        <v>3</v>
-      </c>
-      <c r="S12" s="16">
-        <v>3</v>
-      </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="W12" s="16">
-        <v>1</v>
-      </c>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="AA12" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>194</v>
-      </c>
-      <c r="AC12" s="16">
-        <v>0.58678793900000004</v>
-      </c>
-      <c r="AD12" s="16">
-        <v>0.63863630890846301</v>
-      </c>
-      <c r="AE12" s="16">
-        <v>1.22648117576945E-2</v>
-      </c>
-      <c r="AF12" s="16">
-        <v>0.788313329219818</v>
-      </c>
-      <c r="AG12" s="16">
-        <v>5.8271475985820203E-3</v>
-      </c>
-      <c r="AH12" s="17">
-        <v>332.45338120460502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="16">
-        <v>3</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16">
-        <v>256</v>
-      </c>
-      <c r="O13" s="16">
-        <v>64</v>
-      </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16">
-        <v>3</v>
-      </c>
-      <c r="S13" s="16">
-        <v>3</v>
-      </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="W13" s="16">
-        <v>1</v>
-      </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="AA13" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>219</v>
-      </c>
-      <c r="AC13" s="16">
-        <v>0.58712327499999994</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>0.63823885917663603</v>
-      </c>
-      <c r="AE13" s="16">
-        <v>1.41526722077523E-2</v>
-      </c>
-      <c r="AF13" s="16">
-        <v>0.78504999876022297</v>
-      </c>
-      <c r="AG13" s="16">
-        <v>6.4116150645383502E-3</v>
-      </c>
-      <c r="AH13" s="17">
-        <v>361.06912974516598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="16">
-        <v>3</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16">
-        <v>256</v>
-      </c>
-      <c r="O14" s="16">
-        <v>64</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16">
-        <v>3</v>
-      </c>
-      <c r="S14" s="16">
-        <v>3</v>
-      </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="W14" s="16">
-        <v>1</v>
-      </c>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="AA14" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>198</v>
-      </c>
-      <c r="AC14" s="16">
-        <v>0.58600312499999996</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>0.64751434326171897</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>2.1678619377891999E-2</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>0.784510000546773</v>
-      </c>
-      <c r="AG14" s="16">
-        <v>8.5839961718557397E-3</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>314.29876326719898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>256</v>
-      </c>
-      <c r="O15" s="7">
-        <v>256</v>
-      </c>
-      <c r="P15" s="7">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>128</v>
-      </c>
-      <c r="R15" s="7">
-        <v>5</v>
-      </c>
-      <c r="S15" s="7">
-        <v>9</v>
-      </c>
-      <c r="T15" s="7">
-        <v>7</v>
-      </c>
-      <c r="U15" s="7">
-        <v>7</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0.47383737300000001</v>
-      </c>
-      <c r="W15" s="7">
-        <v>2</v>
-      </c>
-      <c r="X15" s="7">
-        <v>54</v>
-      </c>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>16</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>24</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>0.63530498700000004</v>
-      </c>
-      <c r="AD15" s="7">
-        <v>0.72531234025955205</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>3.50918679621193E-2</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>0.78172332843144698</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>1.1870704684514901E-2</v>
-      </c>
-      <c r="AH15" s="8">
-        <v>972.83061408996605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>256</v>
-      </c>
-      <c r="O16" s="7">
-        <v>256</v>
-      </c>
-      <c r="P16" s="7">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>128</v>
-      </c>
-      <c r="R16" s="7">
-        <v>5</v>
-      </c>
-      <c r="S16" s="7">
-        <v>9</v>
-      </c>
-      <c r="T16" s="7">
-        <v>7</v>
-      </c>
-      <c r="U16" s="7">
-        <v>7</v>
-      </c>
-      <c r="V16" s="7">
-        <v>9.7303324999999996E-2</v>
-      </c>
-      <c r="W16" s="7">
-        <v>2</v>
-      </c>
-      <c r="X16" s="7">
-        <v>46</v>
-      </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>16</v>
-      </c>
-      <c r="AB16" s="7">
-        <v>18</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>0.64837473599999995</v>
-      </c>
-      <c r="AD16" s="7">
-        <v>0.735964715480804</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>7.1886576404444805E-2</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>0.77986666361490897</v>
-      </c>
-      <c r="AG16" s="7">
-        <v>2.1028788674556102E-2</v>
-      </c>
-      <c r="AH16" s="8">
-        <v>787.85460887750003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -9544,13 +9383,13 @@
         <v>7</v>
       </c>
       <c r="V17" s="7">
-        <v>0.139481833</v>
+        <v>0.47383737300000001</v>
       </c>
       <c r="W17" s="7">
         <v>2</v>
       </c>
       <c r="X17" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7">
@@ -9560,1942 +9399,2108 @@
         <v>16</v>
       </c>
       <c r="AB17" s="7">
+        <v>24</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0.63530498700000004</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>0.72531234025955205</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>3.50918679621193E-2</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>0.78172332843144698</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>1.1870704684514901E-2</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>972.83061408996605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>256</v>
+      </c>
+      <c r="O18" s="7">
+        <v>256</v>
+      </c>
+      <c r="P18" s="7">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>128</v>
+      </c>
+      <c r="R18" s="7">
+        <v>3</v>
+      </c>
+      <c r="S18" s="7">
+        <v>9</v>
+      </c>
+      <c r="T18" s="7">
+        <v>5</v>
+      </c>
+      <c r="U18" s="7">
+        <v>7</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0.12865527199999999</v>
+      </c>
+      <c r="W18" s="7">
+        <v>2</v>
+      </c>
+      <c r="X18" s="7">
+        <v>46</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>16</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>28</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0.64217436299999997</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>0.73458821972211197</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>7.7398218723222403E-2</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>0.79403333465258297</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>2.1042747775147801E-2</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>696.20479989846501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>256</v>
+      </c>
+      <c r="O19" s="7">
+        <v>256</v>
+      </c>
+      <c r="P19" s="7">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>128</v>
+      </c>
+      <c r="R19" s="7">
+        <v>5</v>
+      </c>
+      <c r="S19" s="7">
+        <v>9</v>
+      </c>
+      <c r="T19" s="7">
+        <v>7</v>
+      </c>
+      <c r="U19" s="7">
+        <v>7</v>
+      </c>
+      <c r="V19" s="7">
+        <v>9.7303324999999996E-2</v>
+      </c>
+      <c r="W19" s="7">
+        <v>2</v>
+      </c>
+      <c r="X19" s="7">
+        <v>46</v>
+      </c>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>16</v>
+      </c>
+      <c r="AB19" s="7">
         <v>18</v>
       </c>
-      <c r="AC17" s="7">
-        <v>0.65101778499999996</v>
-      </c>
-      <c r="AD17" s="7">
-        <v>0.73535876274108902</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>4.1944596667558898E-2</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>0.779259999593099</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>1.12788995837765E-2</v>
-      </c>
-      <c r="AH17" s="8">
-        <v>792.50061453183503</v>
+      <c r="AC19" s="7">
+        <v>0.64837473599999995</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0.735964715480804</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>7.1886576404444805E-2</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>0.77986666361490897</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>2.1028788674556102E-2</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>787.85460887750003</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>256</v>
+      </c>
+      <c r="O20" s="7">
+        <v>256</v>
+      </c>
+      <c r="P20" s="7">
         <v>64</v>
       </c>
-      <c r="O18" s="10">
-        <v>64</v>
-      </c>
-      <c r="P18" s="10">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>64</v>
-      </c>
-      <c r="R18" s="10">
+      <c r="Q20" s="7">
+        <v>128</v>
+      </c>
+      <c r="R20" s="7">
+        <v>3</v>
+      </c>
+      <c r="S20" s="7">
+        <v>9</v>
+      </c>
+      <c r="T20" s="7">
+        <v>7</v>
+      </c>
+      <c r="U20" s="7">
+        <v>7</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0.104736808</v>
+      </c>
+      <c r="W20" s="7">
+        <v>2</v>
+      </c>
+      <c r="X20" s="7">
+        <v>46</v>
+      </c>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>29</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>0.64962905599999998</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>0.74313720862070698</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>4.8535284999142697E-2</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0.78961333036422698</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>1.1027104497668999E-2</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>773.76863133907295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7">
         <v>5</v>
       </c>
-      <c r="S18" s="10">
-        <v>11</v>
-      </c>
-      <c r="T18" s="10">
-        <v>5</v>
-      </c>
-      <c r="U18" s="10">
-        <v>5</v>
-      </c>
-      <c r="V18" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="W18" s="10">
-        <v>2</v>
-      </c>
-      <c r="X18" s="10">
-        <v>128</v>
-      </c>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>32</v>
-      </c>
-      <c r="AB18" s="10">
-        <v>111</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>0.65773727900000001</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>0.77516755064328502</v>
-      </c>
-      <c r="AE18" s="10">
-        <v>5.8102244374456401E-2</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>0.77553333044052097</v>
-      </c>
-      <c r="AG18" s="10">
-        <v>1.1442822458505E-2</v>
-      </c>
-      <c r="AH18" s="11">
-        <v>92.512459993362398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="10">
-        <v>5</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10">
-        <v>1</v>
-      </c>
-      <c r="N19" s="10">
-        <v>32</v>
-      </c>
-      <c r="O19" s="10">
-        <v>64</v>
-      </c>
-      <c r="P19" s="10">
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
         <v>256</v>
       </c>
-      <c r="Q19" s="10">
-        <v>32</v>
-      </c>
-      <c r="R19" s="10">
-        <v>5</v>
-      </c>
-      <c r="S19" s="10">
-        <v>5</v>
-      </c>
-      <c r="T19" s="10">
-        <v>5</v>
-      </c>
-      <c r="U19" s="10">
-        <v>5</v>
-      </c>
-      <c r="V19" s="10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W19" s="10">
-        <v>2</v>
-      </c>
-      <c r="X19" s="10">
-        <v>94</v>
-      </c>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA19" s="10">
+      <c r="O21" s="7">
         <v>256</v>
-      </c>
-      <c r="AB19" s="10">
-        <v>219</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>0.78798999800000002</v>
-      </c>
-      <c r="AD19" s="10">
-        <v>0.92490378220876102</v>
-      </c>
-      <c r="AE19" s="10">
-        <v>0.10836465284465301</v>
-      </c>
-      <c r="AF19" s="10">
-        <v>0.770513333876928</v>
-      </c>
-      <c r="AG19" s="10">
-        <v>2.03783440543761E-2</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>166.76135795911199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10">
-        <v>128</v>
-      </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10">
-        <v>7</v>
-      </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="W20" s="10">
-        <v>2</v>
-      </c>
-      <c r="X20" s="10">
-        <v>26</v>
-      </c>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA20" s="10">
-        <v>16</v>
-      </c>
-      <c r="AB20" s="10">
-        <v>227</v>
-      </c>
-      <c r="AC20" s="10">
-        <v>0.66541944399999997</v>
-      </c>
-      <c r="AD20" s="10">
-        <v>0.69428819417953502</v>
-      </c>
-      <c r="AE20" s="10">
-        <v>1.26512785942449E-2</v>
-      </c>
-      <c r="AF20" s="10">
-        <v>0.76609665950139405</v>
-      </c>
-      <c r="AG20" s="10">
-        <v>4.3250252426149096E-3</v>
-      </c>
-      <c r="AH20" s="11">
-        <v>840.68093914985695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <v>64</v>
-      </c>
-      <c r="O21" s="7">
-        <v>128</v>
       </c>
       <c r="P21" s="7">
         <v>64</v>
       </c>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="7">
+        <v>128</v>
+      </c>
       <c r="R21" s="7">
+        <v>5</v>
+      </c>
+      <c r="S21" s="7">
+        <v>9</v>
+      </c>
+      <c r="T21" s="7">
         <v>7</v>
       </c>
-      <c r="S21" s="7">
+      <c r="U21" s="7">
         <v>7</v>
       </c>
-      <c r="T21" s="7">
-        <v>9</v>
-      </c>
-      <c r="U21" s="7"/>
       <c r="V21" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.139481833</v>
       </c>
       <c r="W21" s="7">
         <v>2</v>
       </c>
       <c r="X21" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>0.65101778499999996</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>0.73535876274108902</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>4.1944596667558898E-2</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0.779259999593099</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>1.12788995837765E-2</v>
+      </c>
+      <c r="AH21" s="8">
+        <v>792.50061453183503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="17">
+        <v>4</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17">
+        <v>128</v>
+      </c>
+      <c r="O22" s="17">
+        <v>64</v>
+      </c>
+      <c r="P22" s="17">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17">
+        <v>5</v>
+      </c>
+      <c r="S22" s="17">
+        <v>11</v>
+      </c>
+      <c r="T22" s="17">
+        <v>7</v>
+      </c>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="W22" s="17">
+        <v>3</v>
+      </c>
+      <c r="X22" s="17">
+        <v>102</v>
+      </c>
+      <c r="Y22" s="17">
+        <v>86</v>
+      </c>
+      <c r="Z22" s="17">
         <v>1E-4</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AA22" s="17">
+        <v>32</v>
+      </c>
+      <c r="AB22" s="17">
+        <v>166</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>0.62185473700000005</v>
+      </c>
+      <c r="AD22" s="17">
+        <v>0.69272742470105497</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>2.5393130421131099E-2</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>0.80245332717895501</v>
+      </c>
+      <c r="AG22" s="17">
+        <v>7.6095554933616498E-3</v>
+      </c>
+      <c r="AH22" s="18">
+        <v>171.11059034665399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14">
+        <v>256</v>
+      </c>
+      <c r="O23" s="14">
+        <v>64</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14">
+        <v>3</v>
+      </c>
+      <c r="S23" s="14">
+        <v>3</v>
+      </c>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="W23" s="14">
+        <v>1</v>
+      </c>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>213</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>0.58628886899999999</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0.63863595326741496</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>1.6894403470495398E-2</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>0.788689996798833</v>
+      </c>
+      <c r="AG23" s="14">
+        <v>6.5626081643006201E-3</v>
+      </c>
+      <c r="AH23" s="15">
+        <v>341.11606853802999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14">
+        <v>256</v>
+      </c>
+      <c r="O24" s="14">
+        <v>64</v>
+      </c>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14">
+        <v>3</v>
+      </c>
+      <c r="S24" s="14">
+        <v>3</v>
+      </c>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="W24" s="14">
+        <v>1</v>
+      </c>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>194</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>0.58678793900000004</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0.63863630890846301</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>1.22648117576945E-2</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>0.788313329219818</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>5.8271475985820203E-3</v>
+      </c>
+      <c r="AH24" s="15">
+        <v>332.45338120460502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14">
+        <v>256</v>
+      </c>
+      <c r="O25" s="14">
+        <v>64</v>
+      </c>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14">
+        <v>3</v>
+      </c>
+      <c r="S25" s="14">
+        <v>3</v>
+      </c>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="W25" s="14">
+        <v>1</v>
+      </c>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>219</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>0.58712327499999994</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0.63823885917663603</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>1.41526722077523E-2</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>0.78504999876022297</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>6.4116150645383502E-3</v>
+      </c>
+      <c r="AH25" s="15">
+        <v>361.06912974516598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="14">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14">
+        <v>256</v>
+      </c>
+      <c r="O26" s="14">
+        <v>64</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14">
+        <v>3</v>
+      </c>
+      <c r="S26" s="14">
+        <v>3</v>
+      </c>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="W26" s="14">
+        <v>1</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>198</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>0.58600312499999996</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>0.64751434326171897</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>2.1678619377891999E-2</v>
+      </c>
+      <c r="AF26" s="14">
+        <v>0.784510000546773</v>
+      </c>
+      <c r="AG26" s="14">
+        <v>8.5839961718557397E-3</v>
+      </c>
+      <c r="AH26" s="15">
+        <v>314.29876326719898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="17">
+        <v>5</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17">
+        <v>64</v>
+      </c>
+      <c r="O27" s="17">
+        <v>64</v>
+      </c>
+      <c r="P27" s="17">
+        <v>64</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>64</v>
+      </c>
+      <c r="R27" s="17">
+        <v>5</v>
+      </c>
+      <c r="S27" s="17">
+        <v>11</v>
+      </c>
+      <c r="T27" s="17">
+        <v>5</v>
+      </c>
+      <c r="U27" s="17">
+        <v>5</v>
+      </c>
+      <c r="V27" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="W27" s="17">
+        <v>2</v>
+      </c>
+      <c r="X27" s="17">
         <v>128</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="AA27" s="17">
+        <v>32</v>
+      </c>
+      <c r="AB27" s="17">
+        <v>111</v>
+      </c>
+      <c r="AC27" s="17">
+        <v>0.65773727900000001</v>
+      </c>
+      <c r="AD27" s="17">
+        <v>0.77516755064328502</v>
+      </c>
+      <c r="AE27" s="17">
+        <v>5.8102244374456401E-2</v>
+      </c>
+      <c r="AF27" s="17">
+        <v>0.77553333044052097</v>
+      </c>
+      <c r="AG27" s="17">
+        <v>1.1442822458505E-2</v>
+      </c>
+      <c r="AH27" s="18">
+        <v>92.512459993362398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17">
+        <v>128</v>
+      </c>
+      <c r="O28" s="17">
+        <v>32</v>
+      </c>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17">
+        <v>3</v>
+      </c>
+      <c r="S28" s="17">
+        <v>11</v>
+      </c>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="W28" s="17">
+        <v>3</v>
+      </c>
+      <c r="X28" s="17">
+        <v>116</v>
+      </c>
+      <c r="Y28" s="17">
+        <v>112</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>16</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>139</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>0.68298611600000003</v>
+      </c>
+      <c r="AD28" s="17">
+        <v>0.73676919142405195</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>2.8649462556473201E-2</v>
+      </c>
+      <c r="AF28" s="17">
+        <v>0.76542333761851</v>
+      </c>
+      <c r="AG28" s="17">
+        <v>6.0458397328196798E-3</v>
+      </c>
+      <c r="AH28" s="18">
+        <v>283.728479703267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17">
+        <v>64</v>
+      </c>
+      <c r="O29" s="17">
+        <v>32</v>
+      </c>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17">
+        <v>5</v>
+      </c>
+      <c r="S29" s="17">
+        <v>11</v>
+      </c>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W29" s="17">
+        <v>2</v>
+      </c>
+      <c r="X29" s="17">
         <v>100</v>
       </c>
-      <c r="AC21" s="7">
-        <v>0.69145995400000004</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>0.75776034196217901</v>
-      </c>
-      <c r="AE21" s="7">
-        <v>3.4689807638593501E-2</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>0.76577000220616698</v>
-      </c>
-      <c r="AG21" s="7">
-        <v>1.1551268040909401E-2</v>
-      </c>
-      <c r="AH21" s="8">
-        <v>104.798955202103</v>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="AA29" s="17">
+        <v>32</v>
+      </c>
+      <c r="AB29" s="17">
+        <v>115</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>0.74813476800000001</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>0.81447819670041399</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>1.8491567394293799E-2</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>0.73681999643643703</v>
+      </c>
+      <c r="AG29" s="17">
+        <v>4.5106287317259802E-3</v>
+      </c>
+      <c r="AH29" s="18">
+        <v>98.093706178665201</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="14">
+        <v>5</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
+        <v>1</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30" s="14">
+        <v>128</v>
+      </c>
+      <c r="O30" s="14">
+        <v>128</v>
+      </c>
+      <c r="P30" s="14">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>32</v>
+      </c>
+      <c r="R30" s="14">
+        <v>3</v>
+      </c>
+      <c r="S30" s="14">
+        <v>7</v>
+      </c>
+      <c r="T30" s="14">
+        <v>9</v>
+      </c>
+      <c r="U30" s="14">
+        <v>9</v>
+      </c>
+      <c r="V30" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="W30" s="14">
+        <v>2</v>
+      </c>
+      <c r="X30" s="14">
+        <v>46</v>
+      </c>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>186</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>0.85559999900000006</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>0.64776663382848099</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>4.1498766218760301E-2</v>
+      </c>
+      <c r="AF30" s="14">
+        <v>0.83244999647140505</v>
+      </c>
+      <c r="AG30" s="14">
+        <v>8.7733010656359297E-3</v>
+      </c>
+      <c r="AH30" s="15">
+        <v>895.38368752002702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="14">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <v>1</v>
+      </c>
+      <c r="N31" s="14">
+        <v>128</v>
+      </c>
+      <c r="O31" s="14">
+        <v>128</v>
+      </c>
+      <c r="P31" s="14">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>32</v>
+      </c>
+      <c r="R31" s="14">
+        <v>3</v>
+      </c>
+      <c r="S31" s="14">
+        <v>7</v>
+      </c>
+      <c r="T31" s="14">
+        <v>9</v>
+      </c>
+      <c r="U31" s="14">
+        <v>9</v>
+      </c>
+      <c r="V31" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="W31" s="14">
+        <v>2</v>
+      </c>
+      <c r="X31" s="14">
+        <v>48</v>
+      </c>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB31" s="14">
+        <v>159</v>
+      </c>
+      <c r="AC31" s="14">
+        <v>0.84500002900000004</v>
+      </c>
+      <c r="AD31" s="14">
+        <v>0.64612280925114995</v>
+      </c>
+      <c r="AE31" s="14">
+        <v>3.6992148717990898E-2</v>
+      </c>
+      <c r="AF31" s="14">
+        <v>0.82726333538691199</v>
+      </c>
+      <c r="AG31" s="14">
+        <v>7.1410699758598702E-3</v>
+      </c>
+      <c r="AH31" s="15">
+        <v>806.08633345762905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="14">
+        <v>5</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14">
+        <v>1</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="14">
+        <v>1</v>
+      </c>
+      <c r="N32" s="14">
+        <v>128</v>
+      </c>
+      <c r="O32" s="14">
+        <v>128</v>
+      </c>
+      <c r="P32" s="14">
+        <v>128</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>32</v>
+      </c>
+      <c r="R32" s="14">
+        <v>3</v>
+      </c>
+      <c r="S32" s="14">
+        <v>7</v>
+      </c>
+      <c r="T32" s="14">
+        <v>9</v>
+      </c>
+      <c r="U32" s="14">
+        <v>9</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="W32" s="14">
+        <v>2</v>
+      </c>
+      <c r="X32" s="14">
+        <v>53</v>
+      </c>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>155</v>
+      </c>
+      <c r="AC32" s="14">
+        <v>0.84310001099999998</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>0.64149477283159895</v>
+      </c>
+      <c r="AE32" s="14">
+        <v>3.7548352765818603E-2</v>
+      </c>
+      <c r="AF32" s="14">
+        <v>0.82664333383242306</v>
+      </c>
+      <c r="AG32" s="14">
+        <v>4.8826730567571299E-3</v>
+      </c>
+      <c r="AH32" s="15">
+        <v>799.06912129720001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="14">
+        <v>5</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+      <c r="J33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="14">
+        <v>1</v>
+      </c>
+      <c r="N33" s="14">
+        <v>128</v>
+      </c>
+      <c r="O33" s="14">
+        <v>128</v>
+      </c>
+      <c r="P33" s="14">
+        <v>128</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>32</v>
+      </c>
+      <c r="R33" s="14">
+        <v>3</v>
+      </c>
+      <c r="S33" s="14">
+        <v>7</v>
+      </c>
+      <c r="T33" s="14">
+        <v>9</v>
+      </c>
+      <c r="U33" s="14">
+        <v>9</v>
+      </c>
+      <c r="V33" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="W33" s="14">
+        <v>2</v>
+      </c>
+      <c r="X33" s="14">
+        <v>59</v>
+      </c>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB33" s="14">
+        <v>177</v>
+      </c>
+      <c r="AC33" s="14">
+        <v>0.84420001499999997</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>0.66468369762102797</v>
+      </c>
+      <c r="AE33" s="14">
+        <v>4.0032242153568799E-2</v>
+      </c>
+      <c r="AF33" s="14">
+        <v>0.826539997259776</v>
+      </c>
+      <c r="AG33" s="14">
+        <v>7.3712182504944903E-3</v>
+      </c>
+      <c r="AH33" s="15">
+        <v>811.98574967384297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="14">
+        <v>5</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
+        <v>1</v>
+      </c>
+      <c r="J34" s="14">
+        <v>1</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="14">
+        <v>1</v>
+      </c>
+      <c r="N34" s="14">
+        <v>128</v>
+      </c>
+      <c r="O34" s="14">
+        <v>128</v>
+      </c>
+      <c r="P34" s="14">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>32</v>
+      </c>
+      <c r="R34" s="14">
+        <v>3</v>
+      </c>
+      <c r="S34" s="14">
+        <v>7</v>
+      </c>
+      <c r="T34" s="14">
+        <v>9</v>
+      </c>
+      <c r="U34" s="14">
+        <v>9</v>
+      </c>
+      <c r="V34" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="W34" s="14">
+        <v>2</v>
+      </c>
+      <c r="X34" s="14">
+        <v>47</v>
+      </c>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB34" s="14">
+        <v>188</v>
+      </c>
+      <c r="AC34" s="14">
+        <v>0.84649997899999996</v>
+      </c>
+      <c r="AD34" s="14">
+        <v>0.67490427891413396</v>
+      </c>
+      <c r="AE34" s="14">
+        <v>4.8813876798344397E-2</v>
+      </c>
+      <c r="AF34" s="14">
+        <v>0.82470999757448804</v>
+      </c>
+      <c r="AG34" s="14">
+        <v>7.7223546310897498E-3</v>
+      </c>
+      <c r="AH34" s="15">
+        <v>865.49373059272796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="17">
+        <v>4</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <v>1</v>
+      </c>
+      <c r="K35" s="17">
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <v>1</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17">
+        <v>256</v>
+      </c>
+      <c r="O35" s="17">
+        <v>32</v>
+      </c>
+      <c r="P35" s="17">
+        <v>256</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17">
+        <v>7</v>
+      </c>
+      <c r="S35" s="17">
+        <v>5</v>
+      </c>
+      <c r="T35" s="17">
+        <v>9</v>
+      </c>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="W35" s="17">
+        <v>2</v>
+      </c>
+      <c r="X35" s="17">
+        <v>86</v>
+      </c>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="AA35" s="17">
+        <v>16</v>
+      </c>
+      <c r="AB35" s="17">
         <v>33</v>
       </c>
-      <c r="C22" s="10">
+      <c r="AC35" s="17">
+        <v>0.81414499600000001</v>
+      </c>
+      <c r="AD35" s="17">
+        <v>0.686011338233948</v>
+      </c>
+      <c r="AE35" s="17">
+        <v>2.32042330451037E-2</v>
+      </c>
+      <c r="AF35" s="17">
+        <v>0.80031666755676301</v>
+      </c>
+      <c r="AG35" s="17">
+        <v>5.7912531330664299E-3</v>
+      </c>
+      <c r="AH35" s="18">
+        <v>447.51114521821302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="17">
+        <v>5</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>1</v>
+      </c>
+      <c r="K36" s="17">
+        <v>0</v>
+      </c>
+      <c r="L36" s="17">
+        <v>1</v>
+      </c>
+      <c r="M36" s="17">
+        <v>1</v>
+      </c>
+      <c r="N36" s="17">
+        <v>32</v>
+      </c>
+      <c r="O36" s="17">
+        <v>64</v>
+      </c>
+      <c r="P36" s="17">
+        <v>256</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>32</v>
+      </c>
+      <c r="R36" s="17">
+        <v>5</v>
+      </c>
+      <c r="S36" s="17">
+        <v>5</v>
+      </c>
+      <c r="T36" s="17">
+        <v>5</v>
+      </c>
+      <c r="U36" s="17">
+        <v>5</v>
+      </c>
+      <c r="V36" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W36" s="17">
+        <v>2</v>
+      </c>
+      <c r="X36" s="17">
+        <v>94</v>
+      </c>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="AA36" s="17">
+        <v>256</v>
+      </c>
+      <c r="AB36" s="17">
+        <v>219</v>
+      </c>
+      <c r="AC36" s="17">
+        <v>0.78798999800000002</v>
+      </c>
+      <c r="AD36" s="17">
+        <v>0.92490378220876102</v>
+      </c>
+      <c r="AE36" s="17">
+        <v>0.10836465284465301</v>
+      </c>
+      <c r="AF36" s="17">
+        <v>0.770513333876928</v>
+      </c>
+      <c r="AG36" s="17">
+        <v>2.03783440543761E-2</v>
+      </c>
+      <c r="AH36" s="18">
+        <v>166.76135795911199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="17">
+        <v>4</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <v>0</v>
+      </c>
+      <c r="L37" s="17">
+        <v>1</v>
+      </c>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17">
+        <v>256</v>
+      </c>
+      <c r="O37" s="17">
+        <v>32</v>
+      </c>
+      <c r="P37" s="17">
+        <v>128</v>
+      </c>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17">
+        <v>9</v>
+      </c>
+      <c r="S37" s="17">
+        <v>5</v>
+      </c>
+      <c r="T37" s="17">
+        <v>11</v>
+      </c>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W37" s="17">
+        <v>1</v>
+      </c>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="AA37" s="17">
+        <v>16</v>
+      </c>
+      <c r="AB37" s="17">
+        <v>120</v>
+      </c>
+      <c r="AC37" s="17">
+        <v>0.75881499600000002</v>
+      </c>
+      <c r="AD37" s="17">
+        <v>1.0862951596578001</v>
+      </c>
+      <c r="AE37" s="17">
+        <v>0.10363722014094701</v>
+      </c>
+      <c r="AF37" s="17">
+        <v>0.73914333184560099</v>
+      </c>
+      <c r="AG37" s="17">
+        <v>1.2955515500293099E-2</v>
+      </c>
+      <c r="AH37" s="18">
+        <v>372.10484106540702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="17">
         <v>3</v>
       </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10">
-        <v>128</v>
-      </c>
-      <c r="O22" s="10">
+      <c r="D38" s="17">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17">
+        <v>64</v>
+      </c>
+      <c r="O38" s="17">
         <v>32</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10">
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17">
+        <v>5</v>
+      </c>
+      <c r="S38" s="17">
+        <v>11</v>
+      </c>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W38" s="17">
+        <v>2</v>
+      </c>
+      <c r="X38" s="17">
+        <v>100</v>
+      </c>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="AA38" s="17">
+        <v>32</v>
+      </c>
+      <c r="AB38" s="17">
+        <v>115</v>
+      </c>
+      <c r="AC38" s="17">
+        <v>0.75372999900000004</v>
+      </c>
+      <c r="AD38" s="17">
+        <v>0.81750465432802799</v>
+      </c>
+      <c r="AE38" s="17">
+        <v>1.8597831244290802E-2</v>
+      </c>
+      <c r="AF38" s="17">
+        <v>0.73500666618347199</v>
+      </c>
+      <c r="AG38" s="17">
+        <v>6.3905592657313602E-3</v>
+      </c>
+      <c r="AH38" s="18">
+        <v>182.86313065687801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="20">
         <v>3</v>
       </c>
-      <c r="S22" s="10">
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20">
+        <v>1</v>
+      </c>
+      <c r="J39" s="20">
+        <v>1</v>
+      </c>
+      <c r="K39" s="20">
+        <v>1</v>
+      </c>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20">
+        <v>64</v>
+      </c>
+      <c r="O39" s="20">
+        <v>256</v>
+      </c>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20">
         <v>11</v>
       </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="W22" s="10">
-        <v>3</v>
-      </c>
-      <c r="X22" s="10">
-        <v>116</v>
-      </c>
-      <c r="Y22" s="10">
-        <v>112</v>
-      </c>
-      <c r="Z22" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA22" s="10">
-        <v>16</v>
-      </c>
-      <c r="AB22" s="10">
-        <v>139</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>0.68298611600000003</v>
-      </c>
-      <c r="AD22" s="10">
-        <v>0.73676919142405195</v>
-      </c>
-      <c r="AE22" s="10">
-        <v>2.8649462556473201E-2</v>
-      </c>
-      <c r="AF22" s="10">
-        <v>0.76542333761851</v>
-      </c>
-      <c r="AG22" s="10">
-        <v>6.0458397328196798E-3</v>
-      </c>
-      <c r="AH22" s="11">
-        <v>283.728479703267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7">
+      <c r="S39" s="20">
+        <v>7</v>
+      </c>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="W39" s="20">
+        <v>1</v>
+      </c>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="AA39" s="20">
         <v>32</v>
       </c>
-      <c r="O23" s="7">
-        <v>32</v>
-      </c>
-      <c r="P23" s="7">
-        <v>256</v>
-      </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7">
-        <v>5</v>
-      </c>
-      <c r="S23" s="7">
-        <v>7</v>
-      </c>
-      <c r="T23" s="7">
-        <v>9</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="W23" s="7">
-        <v>2</v>
-      </c>
-      <c r="X23" s="7">
-        <v>50</v>
-      </c>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>16</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>231</v>
-      </c>
-      <c r="AC23" s="7">
-        <v>0.70074236400000001</v>
-      </c>
-      <c r="AD23" s="7">
-        <v>0.75084720651308701</v>
-      </c>
-      <c r="AE23" s="7">
-        <v>1.65105734189771E-2</v>
-      </c>
-      <c r="AF23" s="7">
-        <v>0.75730333725611398</v>
-      </c>
-      <c r="AG23" s="7">
-        <v>5.4262084780144996E-3</v>
-      </c>
-      <c r="AH23" s="8">
-        <v>469.60175855159798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="10">
-        <v>4</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10">
-        <v>64</v>
-      </c>
-      <c r="O24" s="10">
-        <v>32</v>
-      </c>
-      <c r="P24" s="10">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10">
-        <v>5</v>
-      </c>
-      <c r="S24" s="10">
-        <v>9</v>
-      </c>
-      <c r="T24" s="10">
-        <v>5</v>
-      </c>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10">
-        <v>0.32162000000000002</v>
-      </c>
-      <c r="W24" s="10">
-        <v>1</v>
-      </c>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA24" s="10">
-        <v>16</v>
-      </c>
-      <c r="AB24" s="10">
-        <v>117</v>
-      </c>
-      <c r="AC24" s="10">
-        <v>0.77225716899999997</v>
-      </c>
-      <c r="AD24" s="10">
-        <v>0.83790799776713099</v>
-      </c>
-      <c r="AE24" s="10">
-        <v>7.9295434587153393E-2</v>
-      </c>
-      <c r="AF24" s="10">
-        <v>0.75582332809766095</v>
-      </c>
-      <c r="AG24" s="10">
-        <v>1.3699378183625001E-2</v>
-      </c>
-      <c r="AH24" s="11">
-        <v>142.12902557055199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="AB39" s="20">
         <v>31</v>
       </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10">
-        <v>256</v>
-      </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10">
-        <v>5</v>
-      </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10">
-        <v>0.39372000000000001</v>
-      </c>
-      <c r="W25" s="10">
-        <v>1</v>
-      </c>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA25" s="10">
-        <v>64</v>
-      </c>
-      <c r="AB25" s="10">
-        <v>162</v>
-      </c>
-      <c r="AC25" s="10">
-        <v>0.70283633099999998</v>
-      </c>
-      <c r="AD25" s="10">
-        <v>0.74329704840977995</v>
-      </c>
-      <c r="AE25" s="10">
-        <v>1.07585898894903E-2</v>
-      </c>
-      <c r="AF25" s="10">
-        <v>0.74887666106224104</v>
-      </c>
-      <c r="AG25" s="10">
-        <v>5.0454277732012399E-3</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>600.196632226308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10">
-        <v>128</v>
-      </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10">
-        <v>9</v>
-      </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="W26" s="10">
-        <v>2</v>
-      </c>
-      <c r="X26" s="10">
-        <v>40</v>
-      </c>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA26" s="10">
-        <v>32</v>
-      </c>
-      <c r="AB26" s="10">
-        <v>101</v>
-      </c>
-      <c r="AC26" s="10">
-        <v>0.75296533099999996</v>
-      </c>
-      <c r="AD26" s="10">
-        <v>0.79066539804140701</v>
-      </c>
-      <c r="AE26" s="10">
-        <v>3.4590022569824401E-2</v>
-      </c>
-      <c r="AF26" s="10">
-        <v>0.747373338540395</v>
-      </c>
-      <c r="AG26" s="10">
-        <v>8.56657861304678E-3</v>
-      </c>
-      <c r="AH26" s="11">
-        <v>75.733458367983502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7">
-        <v>256</v>
-      </c>
-      <c r="O27" s="7">
-        <v>128</v>
-      </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7">
-        <v>7</v>
-      </c>
-      <c r="S27" s="7">
-        <v>7</v>
-      </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="W27" s="7">
-        <v>2</v>
-      </c>
-      <c r="X27" s="7">
-        <v>49</v>
-      </c>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA27" s="7">
-        <v>64</v>
-      </c>
-      <c r="AB27" s="7">
-        <v>158</v>
-      </c>
-      <c r="AC27" s="7">
-        <v>0.70663344900000002</v>
-      </c>
-      <c r="AD27" s="7">
-        <v>0.74136359095573401</v>
-      </c>
-      <c r="AE27" s="7">
-        <v>2.5001852819337301E-2</v>
-      </c>
-      <c r="AF27" s="7">
-        <v>0.74506333271662395</v>
-      </c>
-      <c r="AG27" s="7">
-        <v>9.0180117704540801E-3</v>
-      </c>
-      <c r="AH27" s="8">
-        <v>570.63563624223104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="7">
-        <v>5</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>128</v>
-      </c>
-      <c r="O28" s="7">
-        <v>64</v>
-      </c>
-      <c r="P28" s="7">
-        <v>128</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>64</v>
-      </c>
-      <c r="R28" s="7">
-        <v>7</v>
-      </c>
-      <c r="S28" s="7">
-        <v>7</v>
-      </c>
-      <c r="T28" s="7">
-        <v>9</v>
-      </c>
-      <c r="U28" s="7">
-        <v>5</v>
-      </c>
-      <c r="V28" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="W28" s="7">
-        <v>2</v>
-      </c>
-      <c r="X28" s="7">
-        <v>15</v>
-      </c>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="AA28" s="7">
-        <v>256</v>
-      </c>
-      <c r="AB28" s="7">
-        <v>62</v>
-      </c>
-      <c r="AC28" s="7">
-        <v>0.717452168</v>
-      </c>
-      <c r="AD28" s="7">
-        <v>0.80070410768191003</v>
-      </c>
-      <c r="AE28" s="7">
-        <v>3.12605577087001E-2</v>
-      </c>
-      <c r="AF28" s="7">
-        <v>0.74142000873883596</v>
-      </c>
-      <c r="AG28" s="7">
-        <v>9.8436178379581792E-3</v>
-      </c>
-      <c r="AH28" s="8">
-        <v>111.120534650485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="10">
-        <v>4</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <v>1</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10">
-        <v>256</v>
-      </c>
-      <c r="O29" s="10">
-        <v>32</v>
-      </c>
-      <c r="P29" s="10">
-        <v>128</v>
-      </c>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10">
-        <v>9</v>
-      </c>
-      <c r="S29" s="10">
-        <v>5</v>
-      </c>
-      <c r="T29" s="10">
-        <v>11</v>
-      </c>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W29" s="10">
-        <v>1</v>
-      </c>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA29" s="10">
-        <v>16</v>
-      </c>
-      <c r="AB29" s="10">
-        <v>120</v>
-      </c>
-      <c r="AC29" s="10">
-        <v>0.75881499600000002</v>
-      </c>
-      <c r="AD29" s="10">
-        <v>1.0862951596578001</v>
-      </c>
-      <c r="AE29" s="10">
-        <v>0.10363722014094701</v>
-      </c>
-      <c r="AF29" s="10">
-        <v>0.73914333184560099</v>
-      </c>
-      <c r="AG29" s="10">
-        <v>1.2955515500293099E-2</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>372.10484106540702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10">
-        <v>64</v>
-      </c>
-      <c r="O30" s="10">
-        <v>32</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10">
-        <v>5</v>
-      </c>
-      <c r="S30" s="10">
-        <v>11</v>
-      </c>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W30" s="10">
-        <v>2</v>
-      </c>
-      <c r="X30" s="10">
-        <v>100</v>
-      </c>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA30" s="10">
-        <v>32</v>
-      </c>
-      <c r="AB30" s="10">
-        <v>115</v>
-      </c>
-      <c r="AC30" s="10">
-        <v>0.74813476800000001</v>
-      </c>
-      <c r="AD30" s="10">
-        <v>0.81447819670041399</v>
-      </c>
-      <c r="AE30" s="10">
-        <v>1.8491567394293799E-2</v>
-      </c>
-      <c r="AF30" s="10">
-        <v>0.73681999643643703</v>
-      </c>
-      <c r="AG30" s="10">
-        <v>4.5106287317259802E-3</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>98.093706178665201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="10">
-        <v>3</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10">
-        <v>64</v>
-      </c>
-      <c r="O31" s="10">
-        <v>32</v>
-      </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10">
-        <v>5</v>
-      </c>
-      <c r="S31" s="10">
-        <v>11</v>
-      </c>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W31" s="10">
-        <v>2</v>
-      </c>
-      <c r="X31" s="10">
-        <v>100</v>
-      </c>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA31" s="10">
-        <v>32</v>
-      </c>
-      <c r="AB31" s="10">
-        <v>115</v>
-      </c>
-      <c r="AC31" s="10">
-        <v>0.75372999900000004</v>
-      </c>
-      <c r="AD31" s="10">
-        <v>0.81750465432802799</v>
-      </c>
-      <c r="AE31" s="10">
-        <v>1.8597831244290802E-2</v>
-      </c>
-      <c r="AF31" s="10">
-        <v>0.73500666618347199</v>
-      </c>
-      <c r="AG31" s="10">
-        <v>6.3905592657313602E-3</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>182.86313065687801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10">
-        <v>1</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="10">
-        <v>1</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10">
-        <v>64</v>
-      </c>
-      <c r="O32" s="10">
-        <v>32</v>
-      </c>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10">
-        <v>5</v>
-      </c>
-      <c r="S32" s="10">
-        <v>9</v>
-      </c>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10">
-        <v>0.40906999999999999</v>
-      </c>
-      <c r="W32" s="10">
-        <v>1</v>
-      </c>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA32" s="10">
-        <v>512</v>
-      </c>
-      <c r="AB32" s="10">
-        <v>84</v>
-      </c>
-      <c r="AC32" s="10">
-        <v>0.79489138100000001</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>0.83565710385640501</v>
-      </c>
-      <c r="AE32" s="10">
-        <v>8.1619730052011494E-2</v>
-      </c>
-      <c r="AF32" s="10">
-        <v>0.73153999646504697</v>
-      </c>
-      <c r="AG32" s="10">
-        <v>2.35528701994537E-2</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>96.944091208775802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="7">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7">
-        <v>256</v>
-      </c>
-      <c r="O33" s="7">
-        <v>64</v>
-      </c>
-      <c r="P33" s="7">
-        <v>64</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7">
-        <v>7</v>
-      </c>
-      <c r="S33" s="7">
-        <v>7</v>
-      </c>
-      <c r="T33" s="7">
-        <v>9</v>
-      </c>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="W33" s="7">
-        <v>2</v>
-      </c>
-      <c r="X33" s="7">
-        <v>47</v>
-      </c>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="AA33" s="7">
-        <v>1024</v>
-      </c>
-      <c r="AB33" s="7">
-        <v>138</v>
-      </c>
-      <c r="AC33" s="7">
-        <v>0.71646696300000001</v>
-      </c>
-      <c r="AD33" s="7">
-        <v>0.79223951697349504</v>
-      </c>
-      <c r="AE33" s="7">
-        <v>3.7314496738958702E-2</v>
-      </c>
-      <c r="AF33" s="7">
-        <v>0.72987999518712399</v>
-      </c>
-      <c r="AG33" s="7">
-        <v>1.5337639516124201E-2</v>
-      </c>
-      <c r="AH33" s="8">
-        <v>197.280905818939</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="10">
-        <v>2</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10">
-        <v>32</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10">
-        <v>9</v>
-      </c>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="W34" s="10">
-        <v>1</v>
-      </c>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA34" s="10">
-        <v>64</v>
-      </c>
-      <c r="AB34" s="10">
-        <v>207</v>
-      </c>
-      <c r="AC34" s="10">
-        <v>0.789840353</v>
-      </c>
-      <c r="AD34" s="10">
-        <v>0.81938179135322597</v>
-      </c>
-      <c r="AE34" s="10">
-        <v>3.3202825036618797E-2</v>
-      </c>
-      <c r="AF34" s="10">
-        <v>0.72942666808764101</v>
-      </c>
-      <c r="AG34" s="10">
-        <v>9.3033509249730306E-3</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>131.498756996791</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="10">
-        <v>2</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10">
-        <v>1</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0</v>
-      </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10">
-        <v>32</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10">
-        <v>7</v>
-      </c>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="W35" s="10">
-        <v>2</v>
-      </c>
-      <c r="X35" s="10">
-        <v>68</v>
-      </c>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA35" s="10">
-        <v>32</v>
-      </c>
-      <c r="AB35" s="10">
-        <v>187</v>
-      </c>
-      <c r="AC35" s="10">
-        <v>0.76469906600000004</v>
-      </c>
-      <c r="AD35" s="10">
-        <v>0.79321498274803204</v>
-      </c>
-      <c r="AE35" s="10">
-        <v>1.5934312072191599E-2</v>
-      </c>
-      <c r="AF35" s="10">
-        <v>0.72906000018119799</v>
-      </c>
-      <c r="AG35" s="10">
-        <v>5.3802065687270102E-3</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>620.47724804878203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="10">
-        <v>4</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10">
-        <v>128</v>
-      </c>
-      <c r="O36" s="10">
-        <v>64</v>
-      </c>
-      <c r="P36" s="10">
-        <v>128</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10">
-        <v>9</v>
-      </c>
-      <c r="S36" s="10">
-        <v>7</v>
-      </c>
-      <c r="T36" s="10">
-        <v>11</v>
-      </c>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="W36" s="10">
-        <v>2</v>
-      </c>
-      <c r="X36" s="10">
-        <v>100</v>
-      </c>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA36" s="10">
-        <v>512</v>
-      </c>
-      <c r="AB36" s="10">
-        <v>150</v>
-      </c>
-      <c r="AC36" s="10">
-        <v>0.79672435500000005</v>
-      </c>
-      <c r="AD36" s="10">
-        <v>0.83578843077023801</v>
-      </c>
-      <c r="AE36" s="10">
-        <v>3.7921644864806703E-2</v>
-      </c>
-      <c r="AF36" s="10">
-        <v>0.72043333450953195</v>
-      </c>
-      <c r="AG36" s="10">
-        <v>1.2151271282704001E-2</v>
-      </c>
-      <c r="AH36" s="11">
-        <v>127.59561530748999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="10">
-        <v>2</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10">
-        <v>1</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10">
-        <v>256</v>
-      </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10">
-        <v>5</v>
-      </c>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10">
-        <v>0.26488</v>
-      </c>
-      <c r="W37" s="10">
-        <v>1</v>
-      </c>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="AA37" s="10">
-        <v>512</v>
-      </c>
-      <c r="AB37" s="10">
-        <v>109</v>
-      </c>
-      <c r="AC37" s="10">
-        <v>0.82423857099999998</v>
-      </c>
-      <c r="AD37" s="10">
-        <v>0.86392089724540699</v>
-      </c>
-      <c r="AE37" s="10">
-        <v>2.09393928041989E-2</v>
-      </c>
-      <c r="AF37" s="10">
-        <v>0.716286665201187</v>
-      </c>
-      <c r="AG37" s="10">
-        <v>8.1134123619265308E-3</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>91.535086003939298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="10">
-        <v>2</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10">
-        <v>1</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10">
-        <v>128</v>
-      </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10">
-        <v>3</v>
-      </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10">
-        <v>0.41471000000000002</v>
-      </c>
-      <c r="W38" s="10">
-        <v>1</v>
-      </c>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA38" s="10">
-        <v>128</v>
-      </c>
-      <c r="AB38" s="10">
-        <v>155</v>
-      </c>
-      <c r="AC38" s="10">
-        <v>0.82618232599999997</v>
-      </c>
-      <c r="AD38" s="10">
-        <v>0.863362042109172</v>
-      </c>
-      <c r="AE38" s="10">
-        <v>1.5059247108783501E-2</v>
-      </c>
-      <c r="AF38" s="10">
-        <v>0.70682333509127304</v>
-      </c>
-      <c r="AG38" s="10">
-        <v>6.6040063696071599E-3</v>
-      </c>
-      <c r="AH38" s="11">
-        <v>283.40121688047998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="13">
-        <v>3</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1</v>
-      </c>
-      <c r="E39" s="13">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13">
-        <v>1</v>
-      </c>
-      <c r="J39" s="13">
-        <v>1</v>
-      </c>
-      <c r="K39" s="13">
-        <v>1</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13">
-        <v>64</v>
-      </c>
-      <c r="O39" s="13">
-        <v>256</v>
-      </c>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13">
-        <v>11</v>
-      </c>
-      <c r="S39" s="13">
-        <v>7</v>
-      </c>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="W39" s="13">
-        <v>1</v>
-      </c>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="AA39" s="13">
-        <v>32</v>
-      </c>
-      <c r="AB39" s="13">
-        <v>31</v>
-      </c>
-      <c r="AC39" s="13">
+      <c r="AC39" s="20">
         <v>0.71238999400000003</v>
       </c>
-      <c r="AD39" s="13">
+      <c r="AD39" s="20">
         <v>1.8306932787100501</v>
       </c>
-      <c r="AE39" s="13">
+      <c r="AE39" s="20">
         <v>1.8600931682975801</v>
       </c>
-      <c r="AF39" s="13">
+      <c r="AF39" s="20">
         <v>0.69535666505495697</v>
       </c>
-      <c r="AG39" s="13">
+      <c r="AG39" s="20">
         <v>1.9975255368990801E-2</v>
       </c>
-      <c r="AH39" s="14">
+      <c r="AH39" s="21">
         <v>82.544931181271906</v>
       </c>
     </row>
